--- a/STB/KQKD.xlsx
+++ b/STB/KQKD.xlsx
@@ -2257,379 +2257,379 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>370306</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>427428</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>522511</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>639300</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>810</t>
+          <t>810442</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1586</t>
+          <t>1586218</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1822</t>
+          <t>1822089</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>1929006</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1813</t>
+          <t>1812872</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1551</t>
+          <t>1550774</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>1655747</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>1868279</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2140</t>
+          <t>2139571</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2279</t>
+          <t>2278980</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2644</t>
+          <t>2643739</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>3040</t>
+          <t>3039548</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>3897</t>
+          <t>3897359</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>4297</t>
+          <t>4297000</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>4357</t>
+          <t>4357075</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>4593</t>
+          <t>4592541</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>4618</t>
+          <t>4617651</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>4368</t>
+          <t>4368283</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>4237965</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>4092</t>
+          <t>4092023</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>4170</t>
+          <t>4169510</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>4244</t>
+          <t>4244105</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>4112</t>
+          <t>4111529</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>4032</t>
+          <t>4031789</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>3907</t>
+          <t>3906903</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>3817</t>
+          <t>3817395</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>4025</t>
+          <t>4024706</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4018</t>
+          <t>4018016</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>3336</t>
+          <t>3335849</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>3950</t>
+          <t>3950205</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>3865</t>
+          <t>3865369</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>3964</t>
+          <t>3963645</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>4166</t>
+          <t>4165593</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>4522</t>
+          <t>4522150</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>4948</t>
+          <t>4948032</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>4434</t>
+          <t>4433545</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>5063</t>
+          <t>5063468</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>4875</t>
+          <t>4874971</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>5101</t>
+          <t>5101152</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>5852</t>
+          <t>5852032</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>6030</t>
+          <t>6029956</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>6046</t>
+          <t>6046226</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>6385</t>
+          <t>6385204</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>6910</t>
+          <t>6910294</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>6954</t>
+          <t>6953847</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>7351</t>
+          <t>7351280</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
         <is>
-          <t>7300</t>
+          <t>7300322</t>
         </is>
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>8452</t>
+          <t>8451686</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>7374</t>
+          <t>7373683</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>8487</t>
+          <t>8486713</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>8369</t>
+          <t>8369258</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>8612</t>
+          <t>8611597</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>8120</t>
+          <t>8120099</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>7655</t>
+          <t>7654848</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>7697</t>
+          <t>7697174</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
         <is>
-          <t>7741</t>
+          <t>7740806</t>
         </is>
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>6598</t>
+          <t>6597908</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>7495</t>
+          <t>7495246</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>7225</t>
+          <t>7225005</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>10634</t>
+          <t>10633692</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>12037</t>
+          <t>12036905</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>13908</t>
+          <t>13907868</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>14674</t>
+          <t>14673963</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>13651</t>
+          <t>13651131</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
         <is>
-          <t>13694</t>
+          <t>13694367</t>
         </is>
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>12485</t>
+          <t>12485026</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>12382</t>
+          <t>12381798</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>12521</t>
+          <t>12521371</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>12601</t>
+          <t>12600526</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>13649</t>
+          <t>13648861</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>13858</t>
+          <t>13857982</t>
         </is>
       </c>
     </row>
@@ -2641,379 +2641,379 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>223251</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>261138</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>304759</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>379581</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>550904</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1120096</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1468</t>
+          <t>1467557</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1874</t>
+          <t>1873956</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>1547675</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1059</t>
+          <t>1059319</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>1039293</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>1233636</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1509</t>
+          <t>1508916</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1659</t>
+          <t>1658973</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>1809595</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>2067105</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2666</t>
+          <t>2665626</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2978</t>
+          <t>2977885</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>3049</t>
+          <t>3048672</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>3043274</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2952</t>
+          <t>2952211</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2838</t>
+          <t>2837746</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2738</t>
+          <t>2737745</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2417</t>
+          <t>2416540</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2380</t>
+          <t>2380093</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2433</t>
+          <t>2433294</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2481</t>
+          <t>2480592</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2425</t>
+          <t>2424870</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2328133</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>2255</t>
+          <t>2255398</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>2134</t>
+          <t>2133915</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>2160138</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>2082</t>
+          <t>2081862</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2010159</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011589</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2056</t>
+          <t>2056047</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>3252</t>
+          <t>3252075</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>3283</t>
+          <t>3283431</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>3435</t>
+          <t>3434561</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>3477</t>
+          <t>3477033</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>3653</t>
+          <t>3652681</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>3823</t>
+          <t>3823427</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>4022</t>
+          <t>4022243</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>4156</t>
+          <t>4155568</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>4510379</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>4374</t>
+          <t>4374371</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>4604</t>
+          <t>4603508</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>4840</t>
+          <t>4840089</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>4844</t>
+          <t>4843809</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>4893</t>
+          <t>4893422</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
         <is>
-          <t>5278</t>
+          <t>5277842</t>
         </is>
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>5527</t>
+          <t>5526860</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>5598</t>
+          <t>5598159</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>5647</t>
+          <t>5646836</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>5732</t>
+          <t>5732059</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>5576</t>
+          <t>5575739</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>5106</t>
+          <t>5106479</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>4646</t>
+          <t>4646484</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>4549</t>
+          <t>4548965</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
         <is>
-          <t>4428</t>
+          <t>4427778</t>
         </is>
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>4103</t>
+          <t>4103022</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>4756</t>
+          <t>4755787</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>4623</t>
+          <t>4622706</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>4872</t>
+          <t>4871714</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>5994</t>
+          <t>5993507</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>8071</t>
+          <t>8071166</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>8923</t>
+          <t>8922528</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>8800</t>
+          <t>8800023</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
         <is>
-          <t>8061</t>
+          <t>8061279</t>
         </is>
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>6534</t>
+          <t>6534186</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>6265</t>
+          <t>6265232</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>6156</t>
+          <t>6156263</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>6501</t>
+          <t>6501342</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>6786</t>
+          <t>6785688</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>7273</t>
+          <t>7272905</t>
         </is>
       </c>
     </row>
@@ -3025,379 +3025,379 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>147054</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>166290</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>217752</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>259719</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>259538</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>466122</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>354532</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>55050</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>265197</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>491455</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>616454</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>634643</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>630655</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>620007</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>834144</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>972443</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>1231733</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>1319115</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>1308403</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1549</t>
+          <t>1549267</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1665</t>
+          <t>1665440</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>1530537</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1500220</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>1675</t>
+          <t>1675483</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>1789</t>
+          <t>1789417</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>1811</t>
+          <t>1810811</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>1630937</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1607</t>
+          <t>1606919</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1579</t>
+          <t>1578770</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1562</t>
+          <t>1561997</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>1890791</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>1857878</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>1253987</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1940046</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>1854</t>
+          <t>1853781</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1908</t>
+          <t>1907599</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>914</t>
+          <t>913518</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1239</t>
+          <t>1238719</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>1513471</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>957</t>
+          <t>956512</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1411</t>
+          <t>1410787</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>1051544</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>1078909</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>1696</t>
+          <t>1696464</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>1520</t>
+          <t>1519577</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1672</t>
+          <t>1671855</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1782</t>
+          <t>1781696</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>2070</t>
+          <t>2070205</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2110038</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>2458</t>
+          <t>2457858</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022480</t>
         </is>
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2925</t>
+          <t>2924826</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>1776</t>
+          <t>1775524</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>2840</t>
+          <t>2839877</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>2637199</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>3036</t>
+          <t>3035858</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>3014</t>
+          <t>3013620</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>3008</t>
+          <t>3008364</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>3148</t>
+          <t>3148209</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
         <is>
-          <t>3313</t>
+          <t>3313028</t>
         </is>
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2494886</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2739</t>
+          <t>2739459</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2602</t>
+          <t>2602299</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>5762</t>
+          <t>5761978</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>6043</t>
+          <t>6043398</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>5837</t>
+          <t>5836702</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>5751</t>
+          <t>5751435</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>4851</t>
+          <t>4851108</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
         <is>
-          <t>5633</t>
+          <t>5633088</t>
         </is>
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>5951</t>
+          <t>5950840</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>6117</t>
+          <t>6116566</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>6365</t>
+          <t>6365108</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>6099</t>
+          <t>6099184</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>6863</t>
+          <t>6863173</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>6585077</t>
         </is>
       </c>
     </row>
@@ -3414,358 +3414,358 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>46401</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>126310</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>308157</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>135110</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>66350</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>146139</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>303560</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>331204</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>403326</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355748</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>321331</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60594</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>513342</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>501293</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>334542</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>317408</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>567958</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>314738</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>347084</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>358866</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>313642</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>406772</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>287687</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>485578</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>256149</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>352377</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>326757</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>363295</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>381833</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>374466</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>420315</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>454649</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>491199</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>472840</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>509759</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>523181</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>595403</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>577526</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>635731</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>663757</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>1564</t>
+          <t>1564375</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>752134</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>831423</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>899361</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>1289120</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>969750</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
         <is>
-          <t>1083</t>
+          <t>1082505</t>
         </is>
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>1122973</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>1628</t>
+          <t>1628215</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>1126417</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>1091313</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1712</t>
+          <t>1712219</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1547</t>
+          <t>1546863</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1336</t>
+          <t>1335613</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1478</t>
+          <t>1478293</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
         <is>
-          <t>1062</t>
+          <t>1062325</t>
         </is>
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>2554417</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2110416</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>2399372</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1870</t>
+          <t>1869613</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>1950534</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1529</t>
+          <t>1529175</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>1613206</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1562</t>
+          <t>1562211</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
         <is>
-          <t>1432</t>
+          <t>1432118</t>
         </is>
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>1357296</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>1503882</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>1534864</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>1725</t>
+          <t>1725193</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1433</t>
+          <t>1433275</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1717</t>
+          <t>1717223</t>
         </is>
       </c>
     </row>
@@ -3782,358 +3782,358 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13773</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27192</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25640</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51517</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-31</t>
+          <t>-30771</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27833</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>33183</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>41453</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>85885</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>43106</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>61815</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>63017</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>109865</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>97256</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>155618</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>93919</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>366991</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115965</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>150338</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>116043</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>338116</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>172889</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48508</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>184501</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>82392</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94581</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>134393</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>135943</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>130469</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>127380</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>145785</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>156062</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>139948</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>159913</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>170047</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>175778</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>177045</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>194702</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>188667</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>208042</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>234637</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>207822</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>241955</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>272878</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>367239</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>327627</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>340913</t>
         </is>
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>375719</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>436194</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>405121</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>393809</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>463336</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>470531</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>498204</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>541975</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>472492</t>
         </is>
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>575458</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>574799</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>658794</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>838</t>
+          <t>838154</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1064</t>
+          <t>1064108</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>871</t>
+          <t>870792</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>959</t>
+          <t>959444</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>842696</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>845875</t>
         </is>
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>779013</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>823361</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>778896</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>761542</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>705460</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>798074</t>
         </is>
       </c>
     </row>
@@ -4150,358 +4150,358 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32628</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>99118</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>282517</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83593</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>97121</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>118306</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>270377</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>289751</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>317441</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>312642</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>259516</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2423</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>403477</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>404037</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>178924</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>223489</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>200967</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>198773</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>196746</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>242823</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>-24</t>
+          <t>-24474</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>233883</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>239179</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>301077</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>173757</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>257796</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>192364</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>227352</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>251364</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>247086</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>274530</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>298587</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>351251</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>312927</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>339712</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>347403</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>418358</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>382824</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>447064</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>455715</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1329738</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>544312</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>589468</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>626483</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>921881</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>642123</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
         <is>
-          <t>742</t>
+          <t>741592</t>
         </is>
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>747254</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>1192</t>
+          <t>1192021</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>721296</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>697504</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>1248883</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1076</t>
+          <t>1076332</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>837409</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>936318</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>589833</t>
         </is>
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1978959</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>1536</t>
+          <t>1535617</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>1741</t>
+          <t>1740578</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>1031</t>
+          <t>1031459</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>886426</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>658383</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>653762</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>719515</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>586243</t>
         </is>
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>578283</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>680521</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>756</t>
+          <t>755968</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>963651</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>727815</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>919149</t>
         </is>
       </c>
     </row>
@@ -4518,358 +4518,358 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42719</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>136970</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26407</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>97055</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>252048</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>227060</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>39733</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>-32</t>
+          <t>-31618</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78571</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>71149</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9011</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>162740</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-514</t>
+          <t>-514102</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-107</t>
+          <t>-107415</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100471</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>45382</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>165829</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>51726</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>147819</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45531</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>-25</t>
+          <t>-25393</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>82725</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>-359</t>
+          <t>-358854</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>73083</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-287</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77883</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50934</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23349</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>42082</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>43381</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74616</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>70274</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-29445</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>63252</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>199737</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>279286</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>-275</t>
+          <t>-275246</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>147226</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>82049</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>92928</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21765</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>54064</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>105117</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>153702</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>88395</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>112766</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>107408</t>
         </is>
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>202193</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>186381</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>232683</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>165622</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>159386</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>252048</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>207102</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>167745</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>150086</t>
         </is>
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>212160</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>297932</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>241574</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>219545</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>303193</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>258292</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>245060</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>299692</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>296504</t>
         </is>
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>307605</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>305548</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>217524</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>275051</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>307644</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>226741</t>
         </is>
       </c>
     </row>
@@ -4886,219 +4886,219 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>149008</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3320</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3843</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>131269</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3433</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-57</t>
+          <t>-56587</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15327</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29938</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-8182</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9586</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44649</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>-76</t>
+          <t>-76373</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52431</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>-34</t>
+          <t>-34263</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>-116</t>
+          <t>-116021</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7223</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-19064</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75705</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9870</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>-106</t>
+          <t>-105611</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23622</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19515</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2143</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>-44</t>
+          <t>-44389</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>-45</t>
+          <t>-45029</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100418</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>-85</t>
+          <t>-85073</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>103726</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>64015</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3569</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-172</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-980</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16177</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1589</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2289</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1176</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2630</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6124</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2204</t>
         </is>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5638</t>
         </is>
       </c>
       <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1705</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3304</t>
         </is>
       </c>
       <c r="AZ15" t="inlineStr"/>
@@ -5148,352 +5148,352 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6339</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-39</t>
+          <t>-38714</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22768</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-85</t>
+          <t>-84912</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-19028</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>114953</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>34325</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>298137</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12018</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-4480</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1781</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7048</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2834</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1446</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-8355</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3320</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74654</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>-92</t>
+          <t>-91775</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>-255</t>
+          <t>-255216</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15368</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>84263</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1346</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>-71</t>
+          <t>-70612</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>-122</t>
+          <t>-121828</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8278</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>48961</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>233614</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5738</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2137</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>-8</t>
+          <t>-7826</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>-57</t>
+          <t>-56794</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5752</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13674</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27081</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>-37</t>
+          <t>-37418</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28610</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28630</t>
         </is>
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1891</t>
         </is>
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28087</t>
         </is>
       </c>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19590</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31738</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-770</t>
         </is>
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
-          <t>-29</t>
+          <t>-29335</t>
         </is>
       </c>
       <c r="BA16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22799</t>
         </is>
       </c>
       <c r="BB16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2135</t>
         </is>
       </c>
       <c r="BC16" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28185</t>
         </is>
       </c>
       <c r="BD16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19645</t>
         </is>
       </c>
       <c r="BE16" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18004</t>
         </is>
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>-51</t>
+          <t>-50526</t>
         </is>
       </c>
       <c r="BG16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5986</t>
         </is>
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>120579</t>
         </is>
       </c>
       <c r="BI16" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>34354</t>
         </is>
       </c>
       <c r="BJ16" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17168</t>
         </is>
       </c>
       <c r="BK16" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68621</t>
         </is>
       </c>
       <c r="BL16" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43521</t>
         </is>
       </c>
       <c r="BM16" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2492</t>
         </is>
       </c>
       <c r="BN16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="BO16" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-2221</t>
         </is>
       </c>
       <c r="BP16" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-19574</t>
         </is>
       </c>
       <c r="BQ16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6129</t>
         </is>
       </c>
       <c r="BR16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>21196</t>
         </is>
       </c>
       <c r="BS16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16071</t>
         </is>
       </c>
       <c r="BT16" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>-9579</t>
         </is>
       </c>
       <c r="BU16" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21770</t>
         </is>
       </c>
       <c r="BV16" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17409</t>
         </is>
       </c>
       <c r="BW16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6232</t>
         </is>
       </c>
       <c r="BX16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10136</t>
         </is>
       </c>
       <c r="BY16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1359</t>
         </is>
       </c>
       <c r="BZ16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1747</t>
         </is>
       </c>
     </row>
@@ -5505,387 +5505,387 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>160474</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>97286</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>165831</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>226160</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1067068</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>1525736</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6895</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>8485</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>152141</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>48490</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5895</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7298</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>53875</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22803</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28028</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34756</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>96163</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>361655</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20149</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10033</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>277738</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>200510</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>49431</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>379</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14714</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>-66</t>
+          <t>-66370</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6596</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6079</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>108971</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10665</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15517</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>117275</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28579</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50840</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29924</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32536</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9639</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>504929</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>93292</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>48067</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>89043</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>177527</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>70070</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30138</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>86153</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>152289</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>57006</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>173091</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>93405</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>627528</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>305004</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>431599</t>
         </is>
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>166836</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>582035</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>82415</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>131546</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>366072</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>601190</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>84326</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>499444</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>148566</t>
         </is>
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132862</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>564</t>
+          <t>563972</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>1560</t>
+          <t>1559504</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>66966</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>683761</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50411</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>84141</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45599</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>265296</t>
         </is>
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69605</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>70693</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58737</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>169981</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>137634</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>120973</t>
         </is>
       </c>
     </row>
@@ -5897,387 +5897,387 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>126136</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>41003</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>127806</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>74163</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>758124</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>1080009</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3372</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8649</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44749</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>25346</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11320</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19833</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28583</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>93243</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8682</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>43130</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>328559</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35508</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-27</t>
+          <t>-27293</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>227091</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>167050</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25610</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-1859</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3652</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>63145</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1388</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1408</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>7016</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26126</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5599</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23924</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11953</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17569</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20674</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9688</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-14514</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>15011</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2757</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10648</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56008</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>108745</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2557</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2243</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14366</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1543</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1217</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5152</t>
         </is>
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52266</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5652</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11391</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>21260</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7872</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16968</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26309</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24362</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>109440</t>
         </is>
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>247981</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18393</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19814</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26071</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64576</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>21152</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18186</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15573</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63963</t>
         </is>
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>53311</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36353</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>169420</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>108853</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>241185</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>93722</t>
         </is>
       </c>
     </row>
@@ -6289,387 +6289,387 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>34338</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56283</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>38025</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>151997</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>308944</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1092</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445727</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3523</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-164</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>107392</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>23144</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-5425</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-12535</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>25292</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>-70</t>
+          <t>-70440</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26522</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>26074</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>53033</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>33096</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-15359</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>37326</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50647</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>33460</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23821</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2238</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11062</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>-130</t>
+          <t>-129515</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5208</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4671</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>101955</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>-15</t>
+          <t>-15461</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9918</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>93351</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16626</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>33271</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9250</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22847</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24153</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>489918</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90535</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>37419</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>33035</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68782</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68837</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>28138</t>
         </is>
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83596</t>
         </is>
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>150046</t>
         </is>
       </c>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>55371</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>158725</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91862</t>
         </is>
       </c>
       <c r="AZ19" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>626425</t>
         </is>
       </c>
       <c r="BA19" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>303787</t>
         </is>
       </c>
       <c r="BB19" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>426447</t>
         </is>
       </c>
       <c r="BC19" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>114570</t>
         </is>
       </c>
       <c r="BD19" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>576383</t>
         </is>
       </c>
       <c r="BE19" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>71024</t>
         </is>
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>110286</t>
         </is>
       </c>
       <c r="BG19" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>358200</t>
         </is>
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>584222</t>
         </is>
       </c>
       <c r="BI19" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>58017</t>
         </is>
       </c>
       <c r="BJ19" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>475082</t>
         </is>
       </c>
       <c r="BK19" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>39126</t>
         </is>
       </c>
       <c r="BL19" t="inlineStr">
         <is>
-          <t>-115</t>
+          <t>-115119</t>
         </is>
       </c>
       <c r="BM19" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545579</t>
         </is>
       </c>
       <c r="BN19" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1539690</t>
         </is>
       </c>
       <c r="BO19" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40895</t>
         </is>
       </c>
       <c r="BP19" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>619185</t>
         </is>
       </c>
       <c r="BQ19" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>29259</t>
         </is>
       </c>
       <c r="BR19" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65955</t>
         </is>
       </c>
       <c r="BS19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30026</t>
         </is>
       </c>
       <c r="BT19" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>201333</t>
         </is>
       </c>
       <c r="BU19" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16294</t>
         </is>
       </c>
       <c r="BV19" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>34340</t>
         </is>
       </c>
       <c r="BW19" t="inlineStr">
         <is>
-          <t>-111</t>
+          <t>-110683</t>
         </is>
       </c>
       <c r="BX19" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>61128</t>
         </is>
       </c>
       <c r="BY19" t="inlineStr">
         <is>
-          <t>-104</t>
+          <t>-103551</t>
         </is>
       </c>
       <c r="BZ19" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>27251</t>
         </is>
       </c>
     </row>
@@ -6686,342 +6686,342 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>115884</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20072</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36883</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38621</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95626</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6666</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23707</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17265</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40345</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9859</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>370449</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-5707</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>117277</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12879</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28685</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>-69</t>
+          <t>-69481</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>-227</t>
+          <t>-227272</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22661</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20540</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-4078</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>-123</t>
+          <t>-122568</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30622</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14412</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9060</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>118217</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-1288</t>
         </is>
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>14095</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27752</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15862</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3610</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18739</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-2654</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3566</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-610</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3177</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6102</t>
         </is>
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>-99</t>
+          <t>-99481</t>
         </is>
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-492</t>
         </is>
       </c>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1225</t>
         </is>
       </c>
       <c r="AZ20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>584</t>
         </is>
       </c>
       <c r="BA20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2376</t>
         </is>
       </c>
       <c r="BB20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>730</t>
         </is>
       </c>
       <c r="BC20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1591</t>
         </is>
       </c>
       <c r="BD20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24264</t>
         </is>
       </c>
       <c r="BE20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>228</t>
         </is>
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="BG20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1734</t>
         </is>
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-30353</t>
         </is>
       </c>
       <c r="BI20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>93</t>
         </is>
       </c>
       <c r="BJ20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1591</t>
         </is>
       </c>
       <c r="BK20" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37766</t>
         </is>
       </c>
       <c r="BL20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="BM20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9166</t>
         </is>
       </c>
       <c r="BN20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>745</t>
         </is>
       </c>
       <c r="BO20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2549</t>
         </is>
       </c>
       <c r="BP20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="BQ20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11595</t>
         </is>
       </c>
       <c r="BR20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="BS20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10437</t>
         </is>
       </c>
       <c r="BT20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>806</t>
         </is>
       </c>
       <c r="BU20" t="inlineStr"/>
       <c r="BV20" t="inlineStr"/>
       <c r="BW20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3748</t>
         </is>
       </c>
       <c r="BX20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>893</t>
         </is>
       </c>
       <c r="BY20" t="inlineStr"/>
       <c r="BZ20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9415</t>
         </is>
       </c>
     </row>
@@ -7034,374 +7034,374 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>95757</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>126151</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>109209</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>184031</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>292981</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>309683</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>317328</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>350984</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>339401</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>349064</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>415544</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>580742</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>483010</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>504834</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>555177</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>655416</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>664681</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>745527</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>991</t>
+          <t>991331</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>1168128</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>805504</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>984067</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>1071641</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>1205414</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>1097635</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>951</t>
+          <t>950594</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>1183155</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>974638</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>995740</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>1124735</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>1061043</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>1279</t>
+          <t>1279091</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1102004</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>1162652</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>1373</t>
+          <t>1372636</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>1225</t>
+          <t>1224527</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1464550</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>1259992</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>1515</t>
+          <t>1514820</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>1581</t>
+          <t>1580967</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>1378</t>
+          <t>1377789</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
-          <t>1365</t>
+          <t>1365401</t>
         </is>
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>1648012</t>
         </is>
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1964538</t>
         </is>
       </c>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>1759</t>
+          <t>1758717</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>1744</t>
+          <t>1743875</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1963458</t>
         </is>
       </c>
       <c r="AZ21" t="inlineStr">
         <is>
-          <t>2372</t>
+          <t>2371780</t>
         </is>
       </c>
       <c r="BA21" t="inlineStr">
         <is>
-          <t>2050</t>
+          <t>2050281</t>
         </is>
       </c>
       <c r="BB21" t="inlineStr">
         <is>
-          <t>2285</t>
+          <t>2284831</t>
         </is>
       </c>
       <c r="BC21" t="inlineStr">
         <is>
-          <t>2351</t>
+          <t>2351354</t>
         </is>
       </c>
       <c r="BD21" t="inlineStr">
         <is>
-          <t>2579</t>
+          <t>2579237</t>
         </is>
       </c>
       <c r="BE21" t="inlineStr">
         <is>
-          <t>2478</t>
+          <t>2477566</t>
         </is>
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1973154</t>
         </is>
       </c>
       <c r="BG21" t="inlineStr">
         <is>
-          <t>2625</t>
+          <t>2625228</t>
         </is>
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>3939</t>
+          <t>3939271</t>
         </is>
       </c>
       <c r="BI21" t="inlineStr">
         <is>
-          <t>2669</t>
+          <t>2669373</t>
         </is>
       </c>
       <c r="BJ21" t="inlineStr">
         <is>
-          <t>2336</t>
+          <t>2336056</t>
         </is>
       </c>
       <c r="BK21" t="inlineStr">
         <is>
-          <t>2424</t>
+          <t>2423811</t>
         </is>
       </c>
       <c r="BL21" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>2399883</t>
         </is>
       </c>
       <c r="BM21" t="inlineStr">
         <is>
-          <t>2832</t>
+          <t>2831806</t>
         </is>
       </c>
       <c r="BN21" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2606362</t>
         </is>
       </c>
       <c r="BO21" t="inlineStr">
         <is>
-          <t>3097</t>
+          <t>3097107</t>
         </is>
       </c>
       <c r="BP21" t="inlineStr">
         <is>
-          <t>2646</t>
+          <t>2645824</t>
         </is>
       </c>
       <c r="BQ21" t="inlineStr">
         <is>
-          <t>3416</t>
+          <t>3416137</t>
         </is>
       </c>
       <c r="BR21" t="inlineStr">
         <is>
-          <t>3049</t>
+          <t>3049213</t>
         </is>
       </c>
       <c r="BS21" t="inlineStr">
         <is>
-          <t>3015</t>
+          <t>3014859</t>
         </is>
       </c>
       <c r="BT21" t="inlineStr">
         <is>
-          <t>3410</t>
+          <t>3409696</t>
         </is>
       </c>
       <c r="BU21" t="inlineStr">
         <is>
-          <t>3543</t>
+          <t>3542916</t>
         </is>
       </c>
       <c r="BV21" t="inlineStr">
         <is>
-          <t>4001</t>
+          <t>4001037</t>
         </is>
       </c>
       <c r="BW21" t="inlineStr">
         <is>
-          <t>3287</t>
+          <t>3287498</t>
         </is>
       </c>
       <c r="BX21" t="inlineStr">
         <is>
-          <t>3151</t>
+          <t>3150938</t>
         </is>
       </c>
       <c r="BY21" t="inlineStr">
         <is>
-          <t>3927</t>
+          <t>3927147</t>
         </is>
       </c>
       <c r="BZ21" t="inlineStr">
         <is>
-          <t>3200</t>
+          <t>3199817</t>
         </is>
       </c>
     </row>
@@ -7413,387 +7413,387 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>181393</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>126816</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>129626</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>302507</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>308944</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>416838</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445727</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>442483</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355621</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>218420</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300673</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>423046</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>719</t>
+          <t>718952</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>584052</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>705785</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>578773</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>1035</t>
+          <t>1034529</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>550317</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>675544</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>916</t>
+          <t>916226</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>789427</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>814</t>
+          <t>813750</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>642877</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1101039</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>968</t>
+          <t>968020</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>701794</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50459</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1100497</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>666157</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>863204</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>764717</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>889156</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>1040005</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>1244601</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>615104</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>1143537</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>1079552</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>921</t>
+          <t>921275</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>457443</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>248612</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>846</t>
+          <t>845700</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132850</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>5041</t>
         </is>
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>308486</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>307695</t>
         </is>
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>588739</t>
         </is>
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>1084</t>
+          <t>1084183</t>
         </is>
       </c>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>584770</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>925574</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>982553</t>
         </is>
       </c>
       <c r="AZ22" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>1346208</t>
         </is>
       </c>
       <c r="BA22" t="inlineStr">
         <is>
-          <t>1491</t>
+          <t>1491428</t>
         </is>
       </c>
       <c r="BB22" t="inlineStr">
         <is>
-          <t>1016</t>
+          <t>1015961</t>
         </is>
       </c>
       <c r="BC22" t="inlineStr">
         <is>
-          <t>1667</t>
+          <t>1667265</t>
         </is>
       </c>
       <c r="BD22" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1194981</t>
         </is>
       </c>
       <c r="BE22" t="inlineStr">
         <is>
-          <t>1406</t>
+          <t>1405546</t>
         </is>
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>1588108</t>
         </is>
       </c>
       <c r="BG22" t="inlineStr">
         <is>
-          <t>2185</t>
+          <t>2184819</t>
         </is>
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>1077</t>
+          <t>1077177</t>
         </is>
       </c>
       <c r="BI22" t="inlineStr">
         <is>
-          <t>1476</t>
+          <t>1475966</t>
         </is>
       </c>
       <c r="BJ22" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2410057</t>
         </is>
       </c>
       <c r="BK22" t="inlineStr">
         <is>
-          <t>1775</t>
+          <t>1774649</t>
         </is>
       </c>
       <c r="BL22" t="inlineStr">
         <is>
-          <t>2215</t>
+          <t>2214522</t>
         </is>
       </c>
       <c r="BM22" t="inlineStr">
         <is>
-          <t>2293</t>
+          <t>2293455</t>
         </is>
       </c>
       <c r="BN22" t="inlineStr">
         <is>
-          <t>3523</t>
+          <t>3522828</t>
         </is>
       </c>
       <c r="BO22" t="inlineStr">
         <is>
-          <t>3957</t>
+          <t>3957098</t>
         </is>
       </c>
       <c r="BP22" t="inlineStr">
         <is>
-          <t>5187</t>
+          <t>5186810</t>
         </is>
       </c>
       <c r="BQ22" t="inlineStr">
         <is>
-          <t>3384</t>
+          <t>3384223</t>
         </is>
       </c>
       <c r="BR22" t="inlineStr">
         <is>
-          <t>3688</t>
+          <t>3688194</t>
         </is>
       </c>
       <c r="BS22" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>2911990</t>
         </is>
       </c>
       <c r="BT22" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>3298699</t>
         </is>
       </c>
       <c r="BU22" t="inlineStr">
         <is>
-          <t>3332</t>
+          <t>3331876</t>
         </is>
       </c>
       <c r="BV22" t="inlineStr">
         <is>
-          <t>3153</t>
+          <t>3153347</t>
         </is>
       </c>
       <c r="BW22" t="inlineStr">
         <is>
-          <t>3950</t>
+          <t>3950399</t>
         </is>
       </c>
       <c r="BX22" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>4259105</t>
         </is>
       </c>
       <c r="BY22" t="inlineStr">
         <is>
-          <t>3869</t>
+          <t>3869293</t>
         </is>
       </c>
       <c r="BZ22" t="inlineStr">
         <is>
-          <t>4570</t>
+          <t>4569563</t>
         </is>
       </c>
     </row>
@@ -7810,358 +7810,358 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21898</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30133</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30646</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>9213</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>31036</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>99606</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>60912</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90878</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11319</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>100550</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45938</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90162</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>201222</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>34398</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>148998</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>37209</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>328880</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>113872</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>852</t>
+          <t>852495</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>207486</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41746</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>163587</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21815</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>95354</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>209528</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>466436</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>191270</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>331630</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>366147</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>305898</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>1129</t>
+          <t>1128632</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49611</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>681482</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>-54</t>
+          <t>-54178</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23573</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-970</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38629</t>
         </is>
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>138862</t>
         </is>
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>621198</t>
         </is>
       </c>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>81003</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>433271</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>664122</t>
         </is>
       </c>
       <c r="AZ23" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>413718</t>
         </is>
       </c>
       <c r="BA23" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>429984</t>
         </is>
       </c>
       <c r="BB23" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>616179</t>
         </is>
       </c>
       <c r="BC23" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>637428</t>
         </is>
       </c>
       <c r="BD23" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>469298</t>
         </is>
       </c>
       <c r="BE23" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>417663</t>
         </is>
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>1147557</t>
         </is>
       </c>
       <c r="BG23" t="inlineStr">
         <is>
-          <t>1288</t>
+          <t>1287560</t>
         </is>
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63590</t>
         </is>
       </c>
       <c r="BI23" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>475722</t>
         </is>
       </c>
       <c r="BJ23" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>985809</t>
         </is>
       </c>
       <c r="BK23" t="inlineStr">
         <is>
-          <t>950</t>
+          <t>949878</t>
         </is>
       </c>
       <c r="BL23" t="inlineStr">
         <is>
-          <t>1064</t>
+          <t>1063759</t>
         </is>
       </c>
       <c r="BM23" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>704509</t>
         </is>
       </c>
       <c r="BN23" t="inlineStr">
         <is>
-          <t>2204</t>
+          <t>2203767</t>
         </is>
       </c>
       <c r="BO23" t="inlineStr">
         <is>
-          <t>2425</t>
+          <t>2425071</t>
         </is>
       </c>
       <c r="BP23" t="inlineStr">
         <is>
-          <t>3288</t>
+          <t>3287772</t>
         </is>
       </c>
       <c r="BQ23" t="inlineStr">
         <is>
-          <t>1002</t>
+          <t>1001695</t>
         </is>
       </c>
       <c r="BR23" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>1315656</t>
         </is>
       </c>
       <c r="BS23" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>826697</t>
         </is>
       </c>
       <c r="BT23" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>544058</t>
         </is>
       </c>
       <c r="BU23" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>677655</t>
         </is>
       </c>
       <c r="BV23" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>465307</t>
         </is>
       </c>
       <c r="BW23" t="inlineStr">
         <is>
-          <t>1199</t>
+          <t>1198661</t>
         </is>
       </c>
       <c r="BX23" t="inlineStr">
         <is>
-          <t>-367</t>
+          <t>-367259</t>
         </is>
       </c>
       <c r="BY23" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>195263</t>
         </is>
       </c>
       <c r="BZ23" t="inlineStr">
         <is>
-          <t>912</t>
+          <t>912321</t>
         </is>
       </c>
     </row>
@@ -8173,387 +8173,387 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>181393</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>126816</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>129626</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>302507</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>308944</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>394940</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>445727</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>412350</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>325</t>
+          <t>324975</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>214315</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>291460</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>392010</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>619346</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>523140</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614907</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>567454</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>933979</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>504379</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>585382</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>715004</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>755029</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>664752</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>638798</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>1064</t>
+          <t>1063830</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>639140</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>587922</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>-802</t>
+          <t>-802036</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>893</t>
+          <t>893011</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>624411</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>699617</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>743</t>
+          <t>742902</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>793802</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>830477</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>778</t>
+          <t>778165</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423834</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>811907</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>713405</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>615377</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>-671</t>
+          <t>-671189</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>199001</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>164218</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>187028</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>-19</t>
+          <t>-18532</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>309456</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>269066</t>
         </is>
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>449877</t>
         </is>
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>462985</t>
         </is>
       </c>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>503767</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>492303</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>318431</t>
         </is>
       </c>
       <c r="AZ24" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>932490</t>
         </is>
       </c>
       <c r="BA24" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>1061444</t>
         </is>
       </c>
       <c r="BB24" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>399782</t>
         </is>
       </c>
       <c r="BC24" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>1029837</t>
         </is>
       </c>
       <c r="BD24" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>725683</t>
         </is>
       </c>
       <c r="BE24" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>987883</t>
         </is>
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>440551</t>
         </is>
       </c>
       <c r="BG24" t="inlineStr">
         <is>
-          <t>897</t>
+          <t>897259</t>
         </is>
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1013587</t>
         </is>
       </c>
       <c r="BI24" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1000244</t>
         </is>
       </c>
       <c r="BJ24" t="inlineStr">
         <is>
-          <t>1424</t>
+          <t>1424248</t>
         </is>
       </c>
       <c r="BK24" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>824771</t>
         </is>
       </c>
       <c r="BL24" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1150763</t>
         </is>
       </c>
       <c r="BM24" t="inlineStr">
         <is>
-          <t>1589</t>
+          <t>1588946</t>
         </is>
       </c>
       <c r="BN24" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>1319061</t>
         </is>
       </c>
       <c r="BO24" t="inlineStr">
         <is>
-          <t>1532</t>
+          <t>1532027</t>
         </is>
       </c>
       <c r="BP24" t="inlineStr">
         <is>
-          <t>1899</t>
+          <t>1899038</t>
         </is>
       </c>
       <c r="BQ24" t="inlineStr">
         <is>
-          <t>2383</t>
+          <t>2382528</t>
         </is>
       </c>
       <c r="BR24" t="inlineStr">
         <is>
-          <t>2373</t>
+          <t>2372538</t>
         </is>
       </c>
       <c r="BS24" t="inlineStr">
         <is>
-          <t>2085</t>
+          <t>2085293</t>
         </is>
       </c>
       <c r="BT24" t="inlineStr">
         <is>
-          <t>2755</t>
+          <t>2754641</t>
         </is>
       </c>
       <c r="BU24" t="inlineStr">
         <is>
-          <t>2654</t>
+          <t>2654221</t>
         </is>
       </c>
       <c r="BV24" t="inlineStr">
         <is>
-          <t>2688</t>
+          <t>2688040</t>
         </is>
       </c>
       <c r="BW24" t="inlineStr">
         <is>
-          <t>2752</t>
+          <t>2751738</t>
         </is>
       </c>
       <c r="BX24" t="inlineStr">
         <is>
-          <t>4626</t>
+          <t>4626364</t>
         </is>
       </c>
       <c r="BY24" t="inlineStr">
         <is>
-          <t>3674</t>
+          <t>3674030</t>
         </is>
       </c>
       <c r="BZ24" t="inlineStr">
         <is>
-          <t>3657</t>
+          <t>3657242</t>
         </is>
       </c>
     </row>
@@ -8565,387 +8565,387 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50790</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35508</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36295</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34844</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40083</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>38151</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58876</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>55365</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>44183</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38666</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35748</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94613</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>137585</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>114079</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>132322</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132590</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>198245</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>133339</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>226894</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>143587</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>237233</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>225451</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>167107</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>255923</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>150190</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>176585</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68965</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>217269</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>151125</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>190897</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>-33</t>
+          <t>-33123</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>172966</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>181628</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>170538</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>45392</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>170158</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>127468</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>-151</t>
+          <t>-150778</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>37053</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17239</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36857</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55549</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52479</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57648</t>
         </is>
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>142595</t>
         </is>
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>73107</t>
         </is>
       </c>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>107041</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>120445</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>155251</t>
         </is>
       </c>
       <c r="AZ25" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62974</t>
         </is>
       </c>
       <c r="BA25" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>217202</t>
         </is>
       </c>
       <c r="BB25" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>92597</t>
         </is>
       </c>
       <c r="BC25" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>257968</t>
         </is>
       </c>
       <c r="BD25" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>223775</t>
         </is>
       </c>
       <c r="BE25" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>202142</t>
         </is>
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>97181</t>
         </is>
       </c>
       <c r="BG25" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>180999</t>
         </is>
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>458238</t>
         </is>
       </c>
       <c r="BI25" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>199182</t>
         </is>
       </c>
       <c r="BJ25" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>311409</t>
         </is>
       </c>
       <c r="BK25" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>185043</t>
         </is>
       </c>
       <c r="BL25" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>245392</t>
         </is>
       </c>
       <c r="BM25" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>314870</t>
         </is>
       </c>
       <c r="BN25" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>515172</t>
         </is>
       </c>
       <c r="BO25" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>320420</t>
         </is>
       </c>
       <c r="BP25" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="BQ25" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>482571</t>
         </is>
       </c>
       <c r="BR25" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>447412</t>
         </is>
       </c>
       <c r="BS25" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>450701</t>
         </is>
       </c>
       <c r="BT25" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>635469</t>
         </is>
       </c>
       <c r="BU25" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>542818</t>
         </is>
       </c>
       <c r="BV25" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>511201</t>
         </is>
       </c>
       <c r="BW25" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>550565</t>
         </is>
       </c>
       <c r="BX25" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>1183139</t>
         </is>
       </c>
       <c r="BY25" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>777338</t>
         </is>
       </c>
       <c r="BZ25" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>763644</t>
         </is>
       </c>
     </row>
@@ -8983,7 +8983,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-3966</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-5410</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1663</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -9047,19 +9047,19 @@
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>204669</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-561</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>44200</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr"/>
@@ -9067,7 +9067,7 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1031</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr"/>
@@ -9075,31 +9075,31 @@
       <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12509</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>46439</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AU26" t="inlineStr"/>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>-12</t>
+          <t>-11651</t>
         </is>
       </c>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>579</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
       <c r="AZ26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10545</t>
         </is>
       </c>
       <c r="BA26" t="inlineStr"/>
@@ -9107,7 +9107,7 @@
       <c r="BC26" t="inlineStr"/>
       <c r="BD26" t="inlineStr">
         <is>
-          <t>-30</t>
+          <t>-29660</t>
         </is>
       </c>
       <c r="BE26" t="inlineStr">
@@ -9119,7 +9119,7 @@
       <c r="BG26" t="inlineStr"/>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>-281</t>
+          <t>-281261</t>
         </is>
       </c>
       <c r="BI26" t="inlineStr"/>
@@ -9127,7 +9127,7 @@
       <c r="BK26" t="inlineStr"/>
       <c r="BL26" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47504</t>
         </is>
       </c>
       <c r="BM26" t="inlineStr"/>
@@ -9135,7 +9135,7 @@
       <c r="BO26" t="inlineStr"/>
       <c r="BP26" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>129810</t>
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
@@ -9143,7 +9143,7 @@
       <c r="BS26" t="inlineStr"/>
       <c r="BT26" t="inlineStr">
         <is>
-          <t>-140</t>
+          <t>-139770</t>
         </is>
       </c>
       <c r="BU26" t="inlineStr"/>
@@ -9151,7 +9151,7 @@
       <c r="BW26" t="inlineStr"/>
       <c r="BX26" t="inlineStr">
         <is>
-          <t>-155</t>
+          <t>-154853</t>
         </is>
       </c>
       <c r="BY26" t="inlineStr"/>
@@ -9165,387 +9165,387 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50790</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35508</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>36295</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34844</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40083</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>38151</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>58876</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>55365</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>44183</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38666</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35748</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94613</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>137585</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>114079</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>128356</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>132590</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>198245</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>133339</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>221484</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>143587</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>238896</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>225451</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>167107</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>255923</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>150190</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>176585</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68965</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>217269</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>151125</t>
         </is>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>190897</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>171546</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>172966</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>181067</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>170538</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>89592</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>170158</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>127468</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>-150</t>
+          <t>-149747</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>37053</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>17239</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36857</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>68058</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>98918</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>57648</t>
         </is>
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>142595</t>
         </is>
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>61456</t>
         </is>
       </c>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>107041</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>121024</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>155251</t>
         </is>
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>73519</t>
         </is>
       </c>
       <c r="BA27" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>217202</t>
         </is>
       </c>
       <c r="BB27" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>92597</t>
         </is>
       </c>
       <c r="BC27" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>257968</t>
         </is>
       </c>
       <c r="BD27" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>194115</t>
         </is>
       </c>
       <c r="BE27" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>202142</t>
         </is>
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>97181</t>
         </is>
       </c>
       <c r="BG27" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>180999</t>
         </is>
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>176977</t>
         </is>
       </c>
       <c r="BI27" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>199182</t>
         </is>
       </c>
       <c r="BJ27" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>311409</t>
         </is>
       </c>
       <c r="BK27" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>185043</t>
         </is>
       </c>
       <c r="BL27" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>292896</t>
         </is>
       </c>
       <c r="BM27" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>314870</t>
         </is>
       </c>
       <c r="BN27" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>515172</t>
         </is>
       </c>
       <c r="BO27" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>320420</t>
         </is>
       </c>
       <c r="BP27" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>147915</t>
         </is>
       </c>
       <c r="BQ27" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>482571</t>
         </is>
       </c>
       <c r="BR27" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>447412</t>
         </is>
       </c>
       <c r="BS27" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>450701</t>
         </is>
       </c>
       <c r="BT27" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>495699</t>
         </is>
       </c>
       <c r="BU27" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>542818</t>
         </is>
       </c>
       <c r="BV27" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>511201</t>
         </is>
       </c>
       <c r="BW27" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>550565</t>
         </is>
       </c>
       <c r="BX27" t="inlineStr">
         <is>
-          <t>1028</t>
+          <t>1028286</t>
         </is>
       </c>
       <c r="BY27" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>777338</t>
         </is>
       </c>
       <c r="BZ27" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>763644</t>
         </is>
       </c>
     </row>
@@ -9557,387 +9557,387 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>130603</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>91308</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>93331</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>267663</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>268861</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356789</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>386851</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356985</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>280792</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>175649</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>255712</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>297397</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>481761</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>409061</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>486551</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>434864</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>736</t>
+          <t>735734</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>371040</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>363898</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>571417</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>516133</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>439301</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>471691</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>807907</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>488950</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>411337</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>-871</t>
+          <t>-871001</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>675742</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>473286</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>508720</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>571356</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>620836</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>649410</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>607627</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>334242</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>636543</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>543247</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>487910</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>-521442</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>161948</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>146979</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>150171</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>-87</t>
+          <t>-86590</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>210538</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>211418</t>
         </is>
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>307282</t>
         </is>
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>401529</t>
         </is>
       </c>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>396726</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>371279</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>163180</t>
         </is>
       </c>
       <c r="AZ28" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>858971</t>
         </is>
       </c>
       <c r="BA28" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>844242</t>
         </is>
       </c>
       <c r="BB28" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>307185</t>
         </is>
       </c>
       <c r="BC28" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>771869</t>
         </is>
       </c>
       <c r="BD28" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>531568</t>
         </is>
       </c>
       <c r="BE28" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>785741</t>
         </is>
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>343370</t>
         </is>
       </c>
       <c r="BG28" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>716260</t>
         </is>
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>836610</t>
         </is>
       </c>
       <c r="BI28" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>801062</t>
         </is>
       </c>
       <c r="BJ28" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>1112839</t>
         </is>
       </c>
       <c r="BK28" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>639728</t>
         </is>
       </c>
       <c r="BL28" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>857867</t>
         </is>
       </c>
       <c r="BM28" t="inlineStr">
         <is>
-          <t>1274</t>
+          <t>1274076</t>
         </is>
       </c>
       <c r="BN28" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>803889</t>
         </is>
       </c>
       <c r="BO28" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>1211607</t>
         </is>
       </c>
       <c r="BP28" t="inlineStr">
         <is>
-          <t>1751</t>
+          <t>1751123</t>
         </is>
       </c>
       <c r="BQ28" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>1899957</t>
         </is>
       </c>
       <c r="BR28" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1925126</t>
         </is>
       </c>
       <c r="BS28" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1634592</t>
         </is>
       </c>
       <c r="BT28" t="inlineStr">
         <is>
-          <t>2259</t>
+          <t>2258942</t>
         </is>
       </c>
       <c r="BU28" t="inlineStr">
         <is>
-          <t>2111</t>
+          <t>2111403</t>
         </is>
       </c>
       <c r="BV28" t="inlineStr">
         <is>
-          <t>2177</t>
+          <t>2176839</t>
         </is>
       </c>
       <c r="BW28" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2201173</t>
         </is>
       </c>
       <c r="BX28" t="inlineStr">
         <is>
-          <t>3598</t>
+          <t>3598078</t>
         </is>
       </c>
       <c r="BY28" t="inlineStr">
         <is>
-          <t>2897</t>
+          <t>2896692</t>
         </is>
       </c>
       <c r="BZ28" t="inlineStr">
         <is>
-          <t>2894</t>
+          <t>2893598</t>
         </is>
       </c>
     </row>
@@ -9980,12 +9980,12 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8607</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>-36</t>
+          <t>-36028</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -10005,12 +10005,12 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-76</t>
+          <t>-76349</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -10047,22 +10047,22 @@
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr">
         <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-3</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr"/>
@@ -10137,387 +10137,387 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>130603</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>91308</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>93331</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>267663</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>268861</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356789</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>386851</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356985</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>280792</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>175649</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>255712</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>297397</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>481761</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>409061</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>486551</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>426257</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>771762</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>371040</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>363898</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>571417</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>592482</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>439299</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>471691</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>807907</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>488950</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>411337</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>-871</t>
+          <t>-871001</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>675742</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>473286</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>508720</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>571358</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>621</t>
+          <t>620836</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>649413</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>607624</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>334242</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>636543</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>543247</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>487910</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>-521</t>
+          <t>-521442</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>161948</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>146979</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>150171</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>-87</t>
+          <t>-86590</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>210538</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>211418</t>
         </is>
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>307282</t>
         </is>
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>401529</t>
         </is>
       </c>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>396726</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>371279</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>163180</t>
         </is>
       </c>
       <c r="AZ30" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>858971</t>
         </is>
       </c>
       <c r="BA30" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>844242</t>
         </is>
       </c>
       <c r="BB30" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>307185</t>
         </is>
       </c>
       <c r="BC30" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>771869</t>
         </is>
       </c>
       <c r="BD30" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>531568</t>
         </is>
       </c>
       <c r="BE30" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>785741</t>
         </is>
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>343370</t>
         </is>
       </c>
       <c r="BG30" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>716260</t>
         </is>
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>836610</t>
         </is>
       </c>
       <c r="BI30" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>801062</t>
         </is>
       </c>
       <c r="BJ30" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>1112839</t>
         </is>
       </c>
       <c r="BK30" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>639728</t>
         </is>
       </c>
       <c r="BL30" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>857867</t>
         </is>
       </c>
       <c r="BM30" t="inlineStr">
         <is>
-          <t>1274</t>
+          <t>1274076</t>
         </is>
       </c>
       <c r="BN30" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>803889</t>
         </is>
       </c>
       <c r="BO30" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>1211607</t>
         </is>
       </c>
       <c r="BP30" t="inlineStr">
         <is>
-          <t>1751</t>
+          <t>1751123</t>
         </is>
       </c>
       <c r="BQ30" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>1899957</t>
         </is>
       </c>
       <c r="BR30" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1925126</t>
         </is>
       </c>
       <c r="BS30" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1634592</t>
         </is>
       </c>
       <c r="BT30" t="inlineStr">
         <is>
-          <t>2259</t>
+          <t>2258942</t>
         </is>
       </c>
       <c r="BU30" t="inlineStr">
         <is>
-          <t>2111</t>
+          <t>2111403</t>
         </is>
       </c>
       <c r="BV30" t="inlineStr">
         <is>
-          <t>2177</t>
+          <t>2176839</t>
         </is>
       </c>
       <c r="BW30" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2201173</t>
         </is>
       </c>
       <c r="BX30" t="inlineStr">
         <is>
-          <t>3598</t>
+          <t>3598078</t>
         </is>
       </c>
       <c r="BY30" t="inlineStr">
         <is>
-          <t>2897</t>
+          <t>2896692</t>
         </is>
       </c>
       <c r="BZ30" t="inlineStr">
         <is>
-          <t>2894</t>
+          <t>2893598</t>
         </is>
       </c>
     </row>
